--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2182836666666667</v>
+        <v>0.772903</v>
       </c>
       <c r="H2">
-        <v>0.654851</v>
+        <v>1.545806</v>
       </c>
       <c r="I2">
-        <v>0.03475705869483504</v>
+        <v>0.05922444023038517</v>
       </c>
       <c r="J2">
-        <v>0.04722977609795449</v>
+        <v>0.05686984552343932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N2">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O2">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P2">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q2">
-        <v>4.101579455819834</v>
+        <v>16.723684797985</v>
       </c>
       <c r="R2">
-        <v>24.609476734919</v>
+        <v>66.89473919194</v>
       </c>
       <c r="S2">
-        <v>0.002695071099391988</v>
+        <v>0.003178094013516672</v>
       </c>
       <c r="T2">
-        <v>0.002523457866964386</v>
+        <v>0.002084557697572944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2182836666666667</v>
+        <v>0.772903</v>
       </c>
       <c r="H3">
-        <v>0.654851</v>
+        <v>1.545806</v>
       </c>
       <c r="I3">
-        <v>0.03475705869483504</v>
+        <v>0.05922444023038517</v>
       </c>
       <c r="J3">
-        <v>0.04722977609795449</v>
+        <v>0.05686984552343932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N3">
         <v>26.648703</v>
       </c>
       <c r="O3">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P3">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q3">
-        <v>1.938992200917</v>
+        <v>6.865620831603001</v>
       </c>
       <c r="R3">
-        <v>17.450929808253</v>
+        <v>41.193724989618</v>
       </c>
       <c r="S3">
-        <v>0.001274075486998786</v>
+        <v>0.001304711774203126</v>
       </c>
       <c r="T3">
-        <v>0.001789419847679841</v>
+        <v>0.001283668903655095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2182836666666667</v>
+        <v>0.772903</v>
       </c>
       <c r="H4">
-        <v>0.654851</v>
+        <v>1.545806</v>
       </c>
       <c r="I4">
-        <v>0.03475705869483504</v>
+        <v>0.05922444023038517</v>
       </c>
       <c r="J4">
-        <v>0.04722977609795449</v>
+        <v>0.05686984552343932</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N4">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O4">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P4">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q4">
-        <v>21.28002783666767</v>
+        <v>79.95716470215599</v>
       </c>
       <c r="R4">
-        <v>191.520250530009</v>
+        <v>479.742988212936</v>
       </c>
       <c r="S4">
-        <v>0.0139827080359209</v>
+        <v>0.0151947007819895</v>
       </c>
       <c r="T4">
-        <v>0.01963850300795646</v>
+        <v>0.0149496350687083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2182836666666667</v>
+        <v>0.772903</v>
       </c>
       <c r="H5">
-        <v>0.654851</v>
+        <v>1.545806</v>
       </c>
       <c r="I5">
-        <v>0.03475705869483504</v>
+        <v>0.05922444023038517</v>
       </c>
       <c r="J5">
-        <v>0.04722977609795449</v>
+        <v>0.05686984552343932</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N5">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O5">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P5">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q5">
-        <v>1.054094554879167</v>
+        <v>5.7301378272095</v>
       </c>
       <c r="R5">
-        <v>6.324567329275</v>
+        <v>22.920551308838</v>
       </c>
       <c r="S5">
-        <v>0.0006926258046398046</v>
+        <v>0.001088929679389445</v>
       </c>
       <c r="T5">
-        <v>0.0006485216794373856</v>
+        <v>0.000714244681130481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2182836666666667</v>
+        <v>0.772903</v>
       </c>
       <c r="H6">
-        <v>0.654851</v>
+        <v>1.545806</v>
       </c>
       <c r="I6">
-        <v>0.03475705869483504</v>
+        <v>0.05922444023038517</v>
       </c>
       <c r="J6">
-        <v>0.04722977609795449</v>
+        <v>0.05686984552343932</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N6">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O6">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P6">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q6">
-        <v>2.933999004357</v>
+        <v>133.3477468002453</v>
       </c>
       <c r="R6">
-        <v>26.405991039213</v>
+        <v>800.0864808014719</v>
       </c>
       <c r="S6">
-        <v>0.001927875835994717</v>
+        <v>0.02534080742019595</v>
       </c>
       <c r="T6">
-        <v>0.002707672598675936</v>
+        <v>0.0249321015736871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2182836666666667</v>
+        <v>0.772903</v>
       </c>
       <c r="H7">
-        <v>0.654851</v>
+        <v>1.545806</v>
       </c>
       <c r="I7">
-        <v>0.03475705869483504</v>
+        <v>0.05922444023038517</v>
       </c>
       <c r="J7">
-        <v>0.04722977609795449</v>
+        <v>0.05686984552343932</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N7">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O7">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P7">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q7">
-        <v>21.58743941659956</v>
+        <v>69.02497528012134</v>
       </c>
       <c r="R7">
-        <v>194.286954749396</v>
+        <v>414.149851680728</v>
       </c>
       <c r="S7">
-        <v>0.01418470243188884</v>
+        <v>0.01311719656109047</v>
       </c>
       <c r="T7">
-        <v>0.01992220109724047</v>
+        <v>0.0129056375986854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.247318</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H8">
-        <v>0.741954</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I8">
-        <v>0.03938016239857255</v>
+        <v>0.01672619716803962</v>
       </c>
       <c r="J8">
-        <v>0.05351190010396521</v>
+        <v>0.02409181696207012</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N8">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O8">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P8">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q8">
-        <v>4.647138484271</v>
+        <v>4.723111746081667</v>
       </c>
       <c r="R8">
-        <v>27.882830905626</v>
+        <v>28.33867047649001</v>
       </c>
       <c r="S8">
-        <v>0.003053547726854327</v>
+        <v>0.0008975589618384224</v>
       </c>
       <c r="T8">
-        <v>0.00285910788595527</v>
+        <v>0.000883082801343338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.247318</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H9">
-        <v>0.741954</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I9">
-        <v>0.03938016239857255</v>
+        <v>0.01672619716803962</v>
       </c>
       <c r="J9">
-        <v>0.05351190010396521</v>
+        <v>0.02409181696207012</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N9">
         <v>26.648703</v>
       </c>
       <c r="O9">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P9">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q9">
-        <v>2.196901309518001</v>
+        <v>1.938992200917</v>
       </c>
       <c r="R9">
-        <v>19.772111785662</v>
+        <v>17.450929808253</v>
       </c>
       <c r="S9">
-        <v>0.001443542735493567</v>
+        <v>0.0003684773768716519</v>
       </c>
       <c r="T9">
-        <v>0.002027434047845157</v>
+        <v>0.0005438016576643141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.247318</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H10">
-        <v>0.741954</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I10">
-        <v>0.03938016239857255</v>
+        <v>0.01672619716803962</v>
       </c>
       <c r="J10">
-        <v>0.05351190010396521</v>
+        <v>0.02409181696207012</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N10">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O10">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P10">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q10">
-        <v>24.110525560054</v>
+        <v>22.581543980884</v>
       </c>
       <c r="R10">
-        <v>216.994730040486</v>
+        <v>203.233895827956</v>
       </c>
       <c r="S10">
-        <v>0.01584257511721545</v>
+        <v>0.004291295286207371</v>
       </c>
       <c r="T10">
-        <v>0.022250658334133</v>
+        <v>0.006333125550281666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.247318</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H11">
-        <v>0.741954</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I11">
-        <v>0.03938016239857255</v>
+        <v>0.01672619716803962</v>
       </c>
       <c r="J11">
-        <v>0.05351190010396521</v>
+        <v>0.02409181696207012</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N11">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O11">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P11">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q11">
-        <v>1.194301713475</v>
+        <v>1.618308501103834</v>
       </c>
       <c r="R11">
-        <v>7.165810280850001</v>
+        <v>9.709851006623001</v>
       </c>
       <c r="S11">
-        <v>0.0007847533045772574</v>
+        <v>0.0003075360855880827</v>
       </c>
       <c r="T11">
-        <v>0.0007347828042490367</v>
+        <v>0.0003025760306810664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.247318</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H12">
-        <v>0.741954</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I12">
-        <v>0.03938016239857255</v>
+        <v>0.01672619716803962</v>
       </c>
       <c r="J12">
-        <v>0.05351190010396521</v>
+        <v>0.02409181696207012</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N12">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O12">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P12">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q12">
-        <v>3.324255895278</v>
+        <v>37.66013990539022</v>
       </c>
       <c r="R12">
-        <v>29.918303057502</v>
+        <v>338.941259148512</v>
       </c>
       <c r="S12">
-        <v>0.002184306335364265</v>
+        <v>0.007156763992343474</v>
       </c>
       <c r="T12">
-        <v>0.003067825375967977</v>
+        <v>0.01056200561236699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.247318</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H13">
-        <v>0.741954</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I13">
-        <v>0.03938016239857255</v>
+        <v>0.01672619716803962</v>
       </c>
       <c r="J13">
-        <v>0.05351190010396521</v>
+        <v>0.02409181696207012</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N13">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O13">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P13">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q13">
-        <v>24.45882654970934</v>
+        <v>19.49406936668755</v>
       </c>
       <c r="R13">
-        <v>220.129438947384</v>
+        <v>175.446624300188</v>
       </c>
       <c r="S13">
-        <v>0.01607143717906769</v>
+        <v>0.003704565465190612</v>
       </c>
       <c r="T13">
-        <v>0.02257209165581477</v>
+        <v>0.005467225309732743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.975591</v>
+        <v>0.1300953333333333</v>
       </c>
       <c r="H14">
-        <v>9.951181999999999</v>
+        <v>0.390286</v>
       </c>
       <c r="I14">
-        <v>0.7922576666836866</v>
+        <v>0.009968680795975739</v>
       </c>
       <c r="J14">
-        <v>0.7177084524113041</v>
+        <v>0.01435853174975452</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N14">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O14">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P14">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q14">
-        <v>93.49202410698949</v>
+        <v>2.814937124523333</v>
       </c>
       <c r="R14">
-        <v>373.968096427958</v>
+        <v>16.88962274714</v>
       </c>
       <c r="S14">
-        <v>0.06143185933820769</v>
+        <v>0.0005349380194579691</v>
       </c>
       <c r="T14">
-        <v>0.03834672086244718</v>
+        <v>0.0005263103426658676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.975591</v>
+        <v>0.1300953333333333</v>
       </c>
       <c r="H15">
-        <v>9.951181999999999</v>
+        <v>0.390286</v>
       </c>
       <c r="I15">
-        <v>0.7922576666836866</v>
+        <v>0.009968680795975739</v>
       </c>
       <c r="J15">
-        <v>0.7177084524113041</v>
+        <v>0.01435853174975452</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N15">
         <v>26.648703</v>
       </c>
       <c r="O15">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P15">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q15">
-        <v>44.19768226949101</v>
+        <v>1.155623966562</v>
       </c>
       <c r="R15">
-        <v>265.186093616946</v>
+        <v>10.400615699058</v>
       </c>
       <c r="S15">
-        <v>0.02904146986000683</v>
+        <v>0.0002196095928840752</v>
       </c>
       <c r="T15">
-        <v>0.02719220491176523</v>
+        <v>0.0003241014731033082</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.975591</v>
+        <v>0.1300953333333333</v>
       </c>
       <c r="H16">
-        <v>9.951181999999999</v>
+        <v>0.390286</v>
       </c>
       <c r="I16">
-        <v>0.7922576666836866</v>
+        <v>0.009968680795975739</v>
       </c>
       <c r="J16">
-        <v>0.7177084524113041</v>
+        <v>0.01435853174975452</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N16">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O16">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P16">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q16">
-        <v>485.060181555223</v>
+        <v>13.458421036424</v>
       </c>
       <c r="R16">
-        <v>2910.361089331338</v>
+        <v>121.125789327816</v>
       </c>
       <c r="S16">
-        <v>0.3187239674024581</v>
+        <v>0.002557577940741833</v>
       </c>
       <c r="T16">
-        <v>0.298428677118493</v>
+        <v>0.003774492576963661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.975591</v>
+        <v>0.1300953333333333</v>
       </c>
       <c r="H17">
-        <v>9.951181999999999</v>
+        <v>0.390286</v>
       </c>
       <c r="I17">
-        <v>0.7922576666836866</v>
+        <v>0.009968680795975739</v>
       </c>
       <c r="J17">
-        <v>0.7177084524113041</v>
+        <v>0.01435853174975452</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N17">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O17">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P17">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q17">
-        <v>24.0271911338875</v>
+        <v>0.9644990259796667</v>
       </c>
       <c r="R17">
-        <v>96.10876453554999</v>
+        <v>5.786994155878001</v>
       </c>
       <c r="S17">
-        <v>0.01578781762538457</v>
+        <v>0.0001832890668256297</v>
       </c>
       <c r="T17">
-        <v>0.009855001004850083</v>
+        <v>0.0001803329134572455</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.975591</v>
+        <v>0.1300953333333333</v>
       </c>
       <c r="H18">
-        <v>9.951181999999999</v>
+        <v>0.390286</v>
       </c>
       <c r="I18">
-        <v>0.7922576666836866</v>
+        <v>0.009968680795975739</v>
       </c>
       <c r="J18">
-        <v>0.7177084524113041</v>
+        <v>0.01435853174975452</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N18">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O18">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P18">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q18">
-        <v>66.87801823661098</v>
+        <v>22.44514456435911</v>
       </c>
       <c r="R18">
-        <v>401.268109419666</v>
+        <v>202.006301079232</v>
       </c>
       <c r="S18">
-        <v>0.04394429416169231</v>
+        <v>0.004265374553166697</v>
       </c>
       <c r="T18">
-        <v>0.04114606654924128</v>
+        <v>0.006294871539370429</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.975591</v>
+        <v>0.1300953333333333</v>
       </c>
       <c r="H19">
-        <v>9.951181999999999</v>
+        <v>0.390286</v>
       </c>
       <c r="I19">
-        <v>0.7922576666836866</v>
+        <v>0.009968680795975739</v>
       </c>
       <c r="J19">
-        <v>0.7177084524113041</v>
+        <v>0.01435853174975452</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N19">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O19">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P19">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q19">
-        <v>492.0673677261454</v>
+        <v>11.61831066432978</v>
       </c>
       <c r="R19">
-        <v>2952.404206356872</v>
+        <v>104.564795978968</v>
       </c>
       <c r="S19">
-        <v>0.3233282582959371</v>
+        <v>0.002207891622899534</v>
       </c>
       <c r="T19">
-        <v>0.3027397819645073</v>
+        <v>0.003258422904194013</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5549943333333334</v>
+        <v>11.1968455</v>
       </c>
       <c r="H20">
-        <v>1.664983</v>
+        <v>22.393691</v>
       </c>
       <c r="I20">
-        <v>0.08837111321033721</v>
+        <v>0.857969120424694</v>
       </c>
       <c r="J20">
-        <v>0.1200834606603648</v>
+        <v>0.8238587169862411</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N20">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O20">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P20">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q20">
-        <v>10.42841817007117</v>
+        <v>242.2716885220225</v>
       </c>
       <c r="R20">
-        <v>62.570509020427</v>
+        <v>969.0867540880901</v>
       </c>
       <c r="S20">
-        <v>0.006852318411789813</v>
+        <v>0.04604022452212127</v>
       </c>
       <c r="T20">
-        <v>0.00641598539165698</v>
+        <v>0.03019844725089692</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5549943333333334</v>
+        <v>11.1968455</v>
       </c>
       <c r="H21">
-        <v>1.664983</v>
+        <v>22.393691</v>
       </c>
       <c r="I21">
-        <v>0.08837111321033721</v>
+        <v>0.857969120424694</v>
       </c>
       <c r="J21">
-        <v>0.1200834606603648</v>
+        <v>0.8238587169862411</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N21">
         <v>26.648703</v>
       </c>
       <c r="O21">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P21">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q21">
-        <v>4.929959718561001</v>
+        <v>99.4604700887955</v>
       </c>
       <c r="R21">
-        <v>44.36963746704901</v>
+        <v>596.762820532773</v>
       </c>
       <c r="S21">
-        <v>0.003239384266909114</v>
+        <v>0.01890102141896626</v>
       </c>
       <c r="T21">
-        <v>0.004549666452749596</v>
+        <v>0.0185961788055946</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5549943333333334</v>
+        <v>11.1968455</v>
       </c>
       <c r="H22">
-        <v>1.664983</v>
+        <v>22.393691</v>
       </c>
       <c r="I22">
-        <v>0.08837111321033721</v>
+        <v>0.857969120424694</v>
       </c>
       <c r="J22">
-        <v>0.1200834606603648</v>
+        <v>0.8238587169862411</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N22">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O22">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P22">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q22">
-        <v>54.10526148326634</v>
+        <v>1158.318727949166</v>
       </c>
       <c r="R22">
-        <v>486.9473533493971</v>
+        <v>6949.912367694997</v>
       </c>
       <c r="S22">
-        <v>0.03555155474111162</v>
+        <v>0.2201216932456797</v>
       </c>
       <c r="T22">
-        <v>0.04993162361162521</v>
+        <v>0.2165714897544825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5549943333333334</v>
+        <v>11.1968455</v>
       </c>
       <c r="H23">
-        <v>1.664983</v>
+        <v>22.393691</v>
       </c>
       <c r="I23">
-        <v>0.08837111321033721</v>
+        <v>0.857969120424694</v>
       </c>
       <c r="J23">
-        <v>0.1200834606603648</v>
+        <v>0.8238587169862411</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N23">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O23">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P23">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q23">
-        <v>2.680074573095834</v>
+        <v>83.01102201048576</v>
       </c>
       <c r="R23">
-        <v>16.080447438575</v>
+        <v>332.044088041943</v>
       </c>
       <c r="S23">
-        <v>0.001761026844406737</v>
+        <v>0.0157750421210529</v>
       </c>
       <c r="T23">
-        <v>0.001648890467289042</v>
+        <v>0.01034707763304679</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5549943333333334</v>
+        <v>11.1968455</v>
       </c>
       <c r="H24">
-        <v>1.664983</v>
+        <v>22.393691</v>
       </c>
       <c r="I24">
-        <v>0.08837111321033721</v>
+        <v>0.857969120424694</v>
       </c>
       <c r="J24">
-        <v>0.1200834606603648</v>
+        <v>0.8238587169862411</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N24">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O24">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P24">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q24">
-        <v>7.459801488081</v>
+        <v>1931.774257177765</v>
       </c>
       <c r="R24">
-        <v>67.138213392729</v>
+        <v>11590.64554306659</v>
       </c>
       <c r="S24">
-        <v>0.004901695947691906</v>
+        <v>0.3671057112330884</v>
       </c>
       <c r="T24">
-        <v>0.006884358191957037</v>
+        <v>0.3611848955313686</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5549943333333334</v>
+        <v>11.1968455</v>
       </c>
       <c r="H25">
-        <v>1.664983</v>
+        <v>22.393691</v>
       </c>
       <c r="I25">
-        <v>0.08837111321033721</v>
+        <v>0.857969120424694</v>
       </c>
       <c r="J25">
-        <v>0.1200834606603648</v>
+        <v>0.8238587169862411</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N25">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O25">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P25">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q25">
-        <v>54.88686684782979</v>
+        <v>999.9469323483513</v>
       </c>
       <c r="R25">
-        <v>493.9818016304681</v>
+        <v>5999.681594090108</v>
       </c>
       <c r="S25">
-        <v>0.03606513299842802</v>
+        <v>0.1900254278837853</v>
       </c>
       <c r="T25">
-        <v>0.05065293654508695</v>
+        <v>0.1869606280108518</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2840816666666667</v>
+        <v>0.4889146666666667</v>
       </c>
       <c r="H26">
-        <v>0.852245</v>
+        <v>1.466744</v>
       </c>
       <c r="I26">
-        <v>0.0452339990125688</v>
+        <v>0.03746355940364922</v>
       </c>
       <c r="J26">
-        <v>0.06146641072641139</v>
+        <v>0.05396117281368521</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N26">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O26">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P26">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q26">
-        <v>5.337932725650834</v>
+        <v>10.57888865542667</v>
       </c>
       <c r="R26">
-        <v>32.027596353905</v>
+        <v>63.47333193256001</v>
       </c>
       <c r="S26">
-        <v>0.003507455694656227</v>
+        <v>0.002010364528606866</v>
       </c>
       <c r="T26">
-        <v>0.003284112492507553</v>
+        <v>0.001977940631339851</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2840816666666667</v>
+        <v>0.4889146666666667</v>
       </c>
       <c r="H27">
-        <v>0.852245</v>
+        <v>1.466744</v>
       </c>
       <c r="I27">
-        <v>0.0452339990125688</v>
+        <v>0.03746355940364922</v>
       </c>
       <c r="J27">
-        <v>0.06146641072641139</v>
+        <v>0.05396117281368521</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N27">
         <v>26.648703</v>
       </c>
       <c r="O27">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P27">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q27">
-        <v>2.523469320915001</v>
+        <v>4.342980581448</v>
       </c>
       <c r="R27">
-        <v>22.711223888235</v>
+        <v>39.086825233032</v>
       </c>
       <c r="S27">
-        <v>0.001658124464064773</v>
+        <v>0.0008253205411036009</v>
       </c>
       <c r="T27">
-        <v>0.002328810856341223</v>
+        <v>0.001218014202573084</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2840816666666667</v>
+        <v>0.4889146666666667</v>
       </c>
       <c r="H28">
-        <v>0.852245</v>
+        <v>1.466744</v>
       </c>
       <c r="I28">
-        <v>0.0452339990125688</v>
+        <v>0.03746355940364922</v>
       </c>
       <c r="J28">
-        <v>0.06146641072641139</v>
+        <v>0.05396117281368521</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N28">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O28">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P28">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q28">
-        <v>27.69454016816167</v>
+        <v>50.578443256096</v>
       </c>
       <c r="R28">
-        <v>249.250861513455</v>
+        <v>455.205989304864</v>
       </c>
       <c r="S28">
-        <v>0.01819756404139782</v>
+        <v>0.009611700391803545</v>
       </c>
       <c r="T28">
-        <v>0.02555820483746052</v>
+        <v>0.01418501903810536</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2840816666666667</v>
+        <v>0.4889146666666667</v>
       </c>
       <c r="H29">
-        <v>0.852245</v>
+        <v>1.466744</v>
       </c>
       <c r="I29">
-        <v>0.0452339990125688</v>
+        <v>0.03746355940364922</v>
       </c>
       <c r="J29">
-        <v>0.06146641072641139</v>
+        <v>0.05396117281368521</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N29">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O29">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P29">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q29">
-        <v>1.371833919354167</v>
+        <v>3.624708955385334</v>
       </c>
       <c r="R29">
-        <v>8.231003516125</v>
+        <v>21.748253732312</v>
       </c>
       <c r="S29">
-        <v>0.0009014063945466226</v>
+        <v>0.0006888234244428224</v>
       </c>
       <c r="T29">
-        <v>0.0008440078104669836</v>
+        <v>0.0006777138273367072</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2840816666666667</v>
+        <v>0.4889146666666667</v>
       </c>
       <c r="H30">
-        <v>0.852245</v>
+        <v>1.466744</v>
       </c>
       <c r="I30">
-        <v>0.0452339990125688</v>
+        <v>0.03746355940364922</v>
       </c>
       <c r="J30">
-        <v>0.06146641072641139</v>
+        <v>0.05396117281368521</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N30">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O30">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P30">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q30">
-        <v>3.818404463715</v>
+        <v>84.35168342934755</v>
       </c>
       <c r="R30">
-        <v>34.365640173435</v>
+        <v>759.1651508641279</v>
       </c>
       <c r="S30">
-        <v>0.00250900211169765</v>
+        <v>0.01602981540103907</v>
       </c>
       <c r="T30">
-        <v>0.003523855707418289</v>
+        <v>0.02365692097882665</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2840816666666667</v>
+        <v>0.4889146666666667</v>
       </c>
       <c r="H31">
-        <v>0.852245</v>
+        <v>1.466744</v>
       </c>
       <c r="I31">
-        <v>0.0452339990125688</v>
+        <v>0.03746355940364922</v>
       </c>
       <c r="J31">
-        <v>0.06146641072641139</v>
+        <v>0.05396117281368521</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N31">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O31">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P31">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q31">
-        <v>28.09461588300223</v>
+        <v>43.66307645429688</v>
       </c>
       <c r="R31">
-        <v>252.85154294702</v>
+        <v>392.967688088672</v>
       </c>
       <c r="S31">
-        <v>0.0184604463062057</v>
+        <v>0.008297535116653312</v>
       </c>
       <c r="T31">
-        <v>0.02592741902221682</v>
+        <v>0.01224556413550356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.243364</v>
+      </c>
+      <c r="H32">
+        <v>0.730092</v>
+      </c>
+      <c r="I32">
+        <v>0.01864800197725647</v>
+      </c>
+      <c r="J32">
+        <v>0.02685991596480985</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>21.637495</v>
+      </c>
+      <c r="N32">
+        <v>43.27499</v>
+      </c>
+      <c r="O32">
+        <v>0.05366186664076138</v>
+      </c>
+      <c r="P32">
+        <v>0.03665488587820726</v>
+      </c>
+      <c r="Q32">
+        <v>5.26578733318</v>
+      </c>
+      <c r="R32">
+        <v>31.59472399908</v>
+      </c>
+      <c r="S32">
+        <v>0.001000686595220191</v>
+      </c>
+      <c r="T32">
+        <v>0.0009845471543883423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.243364</v>
+      </c>
+      <c r="H33">
+        <v>0.730092</v>
+      </c>
+      <c r="I33">
+        <v>0.01864800197725647</v>
+      </c>
+      <c r="J33">
+        <v>0.02685991596480985</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.882901</v>
+      </c>
+      <c r="N33">
+        <v>26.648703</v>
+      </c>
+      <c r="O33">
+        <v>0.02202995535504853</v>
+      </c>
+      <c r="P33">
+        <v>0.02257204836482318</v>
+      </c>
+      <c r="Q33">
+        <v>2.161778318964</v>
+      </c>
+      <c r="R33">
+        <v>19.456004870676</v>
+      </c>
+      <c r="S33">
+        <v>0.0004108146510198168</v>
+      </c>
+      <c r="T33">
+        <v>0.0006062833222327741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.243364</v>
+      </c>
+      <c r="H34">
+        <v>0.730092</v>
+      </c>
+      <c r="I34">
+        <v>0.01864800197725647</v>
+      </c>
+      <c r="J34">
+        <v>0.02685991596480985</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>103.450452</v>
+      </c>
+      <c r="N34">
+        <v>310.351356</v>
+      </c>
+      <c r="O34">
+        <v>0.2565613237184104</v>
+      </c>
+      <c r="P34">
+        <v>0.2628745503194079</v>
+      </c>
+      <c r="Q34">
+        <v>25.176115800528</v>
+      </c>
+      <c r="R34">
+        <v>226.585042204752</v>
+      </c>
+      <c r="S34">
+        <v>0.004784356071988454</v>
+      </c>
+      <c r="T34">
+        <v>0.007060788330866474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.243364</v>
+      </c>
+      <c r="H35">
+        <v>0.730092</v>
+      </c>
+      <c r="I35">
+        <v>0.01864800197725647</v>
+      </c>
+      <c r="J35">
+        <v>0.02685991596480985</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>7.413786500000001</v>
+      </c>
+      <c r="N35">
+        <v>14.827573</v>
+      </c>
+      <c r="O35">
+        <v>0.01838649171108194</v>
+      </c>
+      <c r="P35">
+        <v>0.01255928646467133</v>
+      </c>
+      <c r="Q35">
+        <v>1.804248737786</v>
+      </c>
+      <c r="R35">
+        <v>10.825492426716</v>
+      </c>
+      <c r="S35">
+        <v>0.0003428713337830658</v>
+      </c>
+      <c r="T35">
+        <v>0.0003373413790190458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.243364</v>
+      </c>
+      <c r="H36">
+        <v>0.730092</v>
+      </c>
+      <c r="I36">
+        <v>0.01864800197725647</v>
+      </c>
+      <c r="J36">
+        <v>0.02685991596480985</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>172.5284373333333</v>
+      </c>
+      <c r="N36">
+        <v>517.5853119999999</v>
+      </c>
+      <c r="O36">
+        <v>0.4278775336941863</v>
+      </c>
+      <c r="P36">
+        <v>0.4384063530366221</v>
+      </c>
+      <c r="Q36">
+        <v>41.98721062318933</v>
+      </c>
+      <c r="R36">
+        <v>377.8848956087039</v>
+      </c>
+      <c r="S36">
+        <v>0.007979061094352808</v>
+      </c>
+      <c r="T36">
+        <v>0.01177555780100243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.243364</v>
+      </c>
+      <c r="H37">
+        <v>0.730092</v>
+      </c>
+      <c r="I37">
+        <v>0.01864800197725647</v>
+      </c>
+      <c r="J37">
+        <v>0.02685991596480985</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>89.30612933333333</v>
+      </c>
+      <c r="N37">
+        <v>267.918388</v>
+      </c>
+      <c r="O37">
+        <v>0.2214828288805114</v>
+      </c>
+      <c r="P37">
+        <v>0.2269328759362683</v>
+      </c>
+      <c r="Q37">
+        <v>21.73389685907733</v>
+      </c>
+      <c r="R37">
+        <v>195.605071731696</v>
+      </c>
+      <c r="S37">
+        <v>0.004130212230892133</v>
+      </c>
+      <c r="T37">
+        <v>0.006095397977300786</v>
       </c>
     </row>
   </sheetData>
